--- a/wwwroot/excel/class-template.xlsx
+++ b/wwwroot/excel/class-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kronii\kronii-api\wwwroot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5819A3-91BD-4006-88C1-1084B144BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC5551-07AF-4B96-B7E4-A67BE6DB8688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4A01BE8E-F7D7-4123-BF7A-06FB36BB76D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A01BE8E-F7D7-4123-BF7A-06FB36BB76D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>room</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>This is a test class</t>
   </si>
   <si>
-    <t>test03@fpt.edu.vn</t>
-  </si>
-  <si>
     <t>tieuah@gmail.com</t>
   </si>
   <si>
@@ -84,16 +78,33 @@
   </si>
   <si>
     <t>traineetest999@gmail.com</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>testtrainer@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>testtrainer1@fpt.edu.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,15 +127,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,24 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19292796-ADC8-412B-8BFC-3A017E01F18B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,41 +473,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1">
         <v>44489</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E2" s="1">
         <v>44499</v>
       </c>
     </row>
@@ -507,39 +507,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA258A7D-CF3D-4932-8363-B8AA83B6D11D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D5FFEA2-B4D7-4E46-BB7C-9D712A778F20}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D3FCAF32-5190-4FCB-A42A-55AC742FFDBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -548,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3121676-B403-4528-825B-E041F9726FAD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,26 +584,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
